--- a/02_paper/02_study/02_expertise_paper/data/data_empschul_labor_lehrperson.xlsx
+++ b/02_paper/02_study/02_expertise_paper/data/data_empschul_labor_lehrperson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/01_Laborstudie ProVisioNET/Fragebögen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/02_paper/02_study/02_expertise_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{286F36FA-A08A-48CD-A5AE-5945562FF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{286F36FA-A08A-48CD-A5AE-5945562FF00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98DD3F11-AEF4-4320-845C-46155D6901CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empschul_labor_lehrperson" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -516,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -568,7 +566,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -866,12 +864,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U81" sqref="A81:XFD85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
@@ -891,10 +889,10 @@
     <col min="54" max="57" width="5" customWidth="1"/>
     <col min="58" max="59" width="20" customWidth="1"/>
     <col min="60" max="67" width="8" customWidth="1"/>
-    <col min="68" max="1024" width="11.42578125"/>
+    <col min="68" max="1024" width="11.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>98</v>
       </c>
@@ -1286,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:67">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1475,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:67">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -1555,9 +1553,7 @@
       <c r="AC4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AD4" s="1">
-        <v>2</v>
-      </c>
+      <c r="AD4" s="1"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="1">
         <v>3</v>
@@ -1666,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:67">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>102</v>
       </c>
@@ -1855,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>104</v>
       </c>
@@ -2036,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>106</v>
       </c>
@@ -2225,7 +2221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:67">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>107</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:67">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>109</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:67">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>110</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:67">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>111</v>
       </c>
@@ -2971,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:67">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>112</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:67">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>113</v>
       </c>
@@ -3351,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:67">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>114</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:67">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>116</v>
       </c>
@@ -3725,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:67">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>118</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:67">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>120</v>
       </c>
@@ -4099,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:67">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>121</v>
       </c>
@@ -4290,7 +4286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:67">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>122</v>
       </c>
@@ -4475,7 +4471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:67">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>123</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:67">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>143</v>
       </c>
@@ -4853,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:67">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>144</v>
       </c>
@@ -5036,7 +5032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:67">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>145</v>
       </c>
@@ -5225,7 +5221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:67">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>146</v>
       </c>
@@ -5414,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:67">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>147</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:67">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>148</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:67">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>149</v>
       </c>
@@ -5981,7 +5977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:67">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>150</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:67">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>151</v>
       </c>
@@ -6359,7 +6355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:67">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>164</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:67">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>165</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:67">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>168</v>
       </c>
@@ -6918,7 +6914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:67">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>170</v>
       </c>
@@ -7099,7 +7095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:67">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>172</v>
       </c>
@@ -7284,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:67">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>173</v>
       </c>
@@ -7465,7 +7461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:67">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>174</v>
       </c>
@@ -7650,7 +7646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:67">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>175</v>
       </c>
@@ -7837,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:67">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>176</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:67">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>177</v>
       </c>
@@ -8205,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:67">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>179</v>
       </c>
@@ -8392,7 +8388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:67">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>183</v>
       </c>
@@ -8575,7 +8571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:67">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>184</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:67">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>186</v>
       </c>
@@ -8943,7 +8939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:67">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>187</v>
       </c>
@@ -9126,7 +9122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:67">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>188</v>
       </c>
@@ -9309,7 +9305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:67">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>189</v>
       </c>
@@ -9387,9 +9383,7 @@
         <v>2</v>
       </c>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="1">
-        <v>-9</v>
-      </c>
+      <c r="AD46" s="1"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="1">
         <v>2</v>
@@ -9498,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:67">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>195</v>
       </c>
@@ -9685,7 +9679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:67">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>196</v>
       </c>
@@ -9874,7 +9868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:67">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>198</v>
       </c>
@@ -10065,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:67">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>199</v>
       </c>
@@ -10254,7 +10248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:67">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>200</v>
       </c>
@@ -10441,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:67">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>201</v>
       </c>
@@ -10630,7 +10624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:67">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>202</v>
       </c>
@@ -10821,7 +10815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:67">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>203</v>
       </c>
@@ -11010,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:67">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>204</v>
       </c>
@@ -11193,7 +11187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:67">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>205</v>
       </c>
@@ -11374,7 +11368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:67">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>206</v>
       </c>
@@ -11563,7 +11557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:67">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>207</v>
       </c>
@@ -11750,7 +11744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:67">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>208</v>
       </c>
@@ -11935,7 +11929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:67">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>209</v>
       </c>
@@ -12116,7 +12110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:67">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>210</v>
       </c>
@@ -12303,7 +12297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:67">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>211</v>
       </c>
@@ -12484,7 +12478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:67">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>212</v>
       </c>
@@ -12667,7 +12661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:67">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>213</v>
       </c>
@@ -12852,7 +12846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:67">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>215</v>
       </c>
@@ -13035,7 +13029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:67">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>219</v>
       </c>
@@ -13118,7 +13112,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="1">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="AG66" s="1">
         <v>4</v>
@@ -13224,7 +13218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:67">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>220</v>
       </c>
@@ -13413,7 +13407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:67">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>221</v>
       </c>
@@ -13600,7 +13594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:67">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>223</v>
       </c>
@@ -13783,7 +13777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:67">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>225</v>
       </c>
@@ -13972,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:67">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>226</v>
       </c>
@@ -14155,7 +14149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:67">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>227</v>
       </c>
@@ -14336,7 +14330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:67">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>228</v>
       </c>
@@ -14523,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:67">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>229</v>
       </c>
@@ -14704,7 +14698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:67">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>230</v>
       </c>
@@ -14885,7 +14879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:67">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>231</v>
       </c>
@@ -15070,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:67">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>232</v>
       </c>
@@ -15251,7 +15245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:67">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>233</v>
       </c>
@@ -15322,11 +15316,11 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="1">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AE78" s="2"/>
       <c r="AF78" s="1">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="AG78" s="1">
         <v>4</v>
@@ -15432,7 +15426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:67">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>234</v>
       </c>
@@ -15613,7 +15607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:67">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>235</v>
       </c>
@@ -15796,7 +15790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:67">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>238</v>
       </c>
@@ -15859,18 +15853,21 @@
       </c>
       <c r="W81" s="1">
         <v>3</v>
-      </c>
-      <c r="X81" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="1"/>
+      <c r="AD81" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>3</v>
+      </c>
       <c r="AG81" s="1">
         <v>3</v>
       </c>
@@ -15973,7 +15970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:67">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>239</v>
       </c>
@@ -16156,7 +16153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:67">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>240</v>
       </c>
@@ -16341,7 +16338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:67">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>241</v>
       </c>
@@ -16524,7 +16521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:67">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>242</v>
       </c>
